--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>1209100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>740800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>740800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>861100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>861100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>882300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>882300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2553200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>2553200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1213000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>1213000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2032600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>2032600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>471400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>471400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>394200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>394200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>541100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>541100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>2026200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>2026200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1193600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>1193600</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1090700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>1090700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>593800</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>3266900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>3266900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>3390100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1400000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>1400000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1605800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>1605800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1191400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>1191400</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1428100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>1428100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>3304100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>3304100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>3574000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1625400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>1625400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>2649200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>2649200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>4883500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1737"/>
+  <dimension ref="A1:I1738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61173,6 +61173,41 @@
         <v>4883500</v>
       </c>
     </row>
+    <row r="1738">
+      <c r="A1738" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1738" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1738" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>3477700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1738"/>
+  <dimension ref="A1:I1739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61208,6 +61208,41 @@
         <v>3477700</v>
       </c>
     </row>
+    <row r="1739">
+      <c r="A1739" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1739" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1739" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>4330200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1739"/>
+  <dimension ref="A1:I1740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61243,6 +61243,41 @@
         <v>4330200</v>
       </c>
     </row>
+    <row r="1740">
+      <c r="A1740" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1740" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1740" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1740" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>3038900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1740"/>
+  <dimension ref="A1:I1741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61278,6 +61278,41 @@
         <v>3038900</v>
       </c>
     </row>
+    <row r="1741">
+      <c r="A1741" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1741" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1741" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>4323700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1741"/>
+  <dimension ref="A1:I1742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61313,6 +61313,41 @@
         <v>4323700</v>
       </c>
     </row>
+    <row r="1742">
+      <c r="A1742" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1742" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1742" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>4830900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1742"/>
+  <dimension ref="A1:I1743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61348,6 +61348,41 @@
         <v>4830900</v>
       </c>
     </row>
+    <row r="1743">
+      <c r="A1743" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1743" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1743" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1743" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>1841800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1743"/>
+  <dimension ref="A1:I1744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61383,6 +61383,41 @@
         <v>1841800</v>
       </c>
     </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1744" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>3181500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1744"/>
+  <dimension ref="A1:I1745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61418,6 +61418,41 @@
         <v>3181500</v>
       </c>
     </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1745" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>5509000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1745"/>
+  <dimension ref="A1:I1746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61453,6 +61453,41 @@
         <v>5509000</v>
       </c>
     </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1746" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>2537500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1746"/>
+  <dimension ref="A1:I1747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61488,6 +61488,41 @@
         <v>2537500</v>
       </c>
     </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1747" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>7811500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1747"/>
+  <dimension ref="A1:I1748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61523,6 +61523,41 @@
         <v>7811500</v>
       </c>
     </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1748" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>1761700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1748"/>
+  <dimension ref="A1:I1749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61558,6 +61558,41 @@
         <v>1761700</v>
       </c>
     </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1749" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>1481200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1749"/>
+  <dimension ref="A1:I1750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61593,6 +61593,41 @@
         <v>1481200</v>
       </c>
     </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1750" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>5415000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1750"/>
+  <dimension ref="A1:I1751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61628,6 +61628,41 @@
         <v>5415000</v>
       </c>
     </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1751" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>2014300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1751"/>
+  <dimension ref="A1:I1752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61663,6 +61663,41 @@
         <v>2014300</v>
       </c>
     </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1752" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>3454300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1752"/>
+  <dimension ref="A1:I1753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61698,6 +61698,41 @@
         <v>3454300</v>
       </c>
     </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1753" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>2346500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1753"/>
+  <dimension ref="A1:I1754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61733,6 +61733,41 @@
         <v>2346500</v>
       </c>
     </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1754" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>3967000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1754"/>
+  <dimension ref="A1:I1755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61768,6 +61768,41 @@
         <v>3967000</v>
       </c>
     </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1755" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>2102300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1755"/>
+  <dimension ref="A1:I1756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61803,6 +61803,41 @@
         <v>2102300</v>
       </c>
     </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1756" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>1966400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1756"/>
+  <dimension ref="A1:I1757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61838,6 +61838,41 @@
         <v>1966400</v>
       </c>
     </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1757" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>2156900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1757"/>
+  <dimension ref="A1:I1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61873,6 +61873,41 @@
         <v>2156900</v>
       </c>
     </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1758" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>1468400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1758"/>
+  <dimension ref="A1:I1759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61908,6 +61908,41 @@
         <v>1468400</v>
       </c>
     </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1759" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>811800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1759"/>
+  <dimension ref="A1:I1760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61943,6 +61943,41 @@
         <v>811800</v>
       </c>
     </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1760" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>2457300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1760"/>
+  <dimension ref="A1:I1761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61978,6 +61978,41 @@
         <v>2457300</v>
       </c>
     </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1761" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>2625400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1761"/>
+  <dimension ref="A1:I1762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62013,6 +62013,41 @@
         <v>2625400</v>
       </c>
     </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1762" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>5451200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1762"/>
+  <dimension ref="A1:I1764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62048,6 +62048,76 @@
         <v>5451200</v>
       </c>
     </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1763" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>13948500</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1764" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>10495800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1764"/>
+  <dimension ref="A1:I1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62118,6 +62118,41 @@
         <v>10495800</v>
       </c>
     </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1765" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>3258300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1765"/>
+  <dimension ref="A1:I1768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62153,6 +62153,111 @@
         <v>3258300</v>
       </c>
     </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1766" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>4088700</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1767" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>4230200</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1768" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>1582800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1768"/>
+  <dimension ref="A1:I1769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62258,6 +62258,41 @@
         <v>1582800</v>
       </c>
     </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1769" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>1232700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1769"/>
+  <dimension ref="A1:I1770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62293,6 +62293,41 @@
         <v>1232700</v>
       </c>
     </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1770" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>3187100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5230.xlsx
+++ b/data/5230.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1770"/>
+  <dimension ref="A1:I1773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62328,6 +62328,111 @@
         <v>3187100</v>
       </c>
     </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1771" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>3581300</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1772" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>1769300</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>TUNEPRO</t>
+        </is>
+      </c>
+      <c r="E1773" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>1136700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
